--- a/Data/Rawdata/유효성검사 평가일.xlsx
+++ b/Data/Rawdata/유효성검사 평가일.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="11340" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20115" windowHeight="11340"/>
   </bookViews>
   <sheets>
     <sheet name="SARA_Gait" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>V2</t>
   </si>
@@ -114,6 +114,10 @@
   </si>
   <si>
     <t>Samples</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,6 +125,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -168,11 +175,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -458,18 +468,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="1" customWidth="1"/>
-    <col min="3" max="8" width="12.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="5.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -494,8 +507,11 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -520,8 +536,11 @@
       <c r="H2" s="1">
         <v>44063</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1">
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -537,8 +556,9 @@
       <c r="E3" s="1">
         <v>44047</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -560,8 +580,12 @@
       <c r="G4" s="1">
         <v>44138</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H4" s="1">
+        <v>44194</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -577,8 +601,15 @@
       <c r="E5" s="1">
         <v>44070</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F5" s="1">
+        <v>44152</v>
+      </c>
+      <c r="G5" s="1">
+        <v>44179</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -594,8 +625,15 @@
       <c r="E6" s="1">
         <v>44084</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F6" s="1">
+        <v>44180</v>
+      </c>
+      <c r="G6" s="1">
+        <v>44208</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -611,8 +649,15 @@
       <c r="E7" s="1">
         <v>44089</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F7" s="1">
+        <v>44175</v>
+      </c>
+      <c r="G7" s="1">
+        <v>44201</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -628,8 +673,15 @@
       <c r="E8" s="1">
         <v>44110</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F8" s="1">
+        <v>44194</v>
+      </c>
+      <c r="G8" s="1">
+        <v>44222</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -645,17 +697,28 @@
       <c r="E9" s="1">
         <v>44124</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F9" s="1">
+        <v>44208</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>44096</v>
       </c>
       <c r="C10" s="1">
         <v>44131</v>
       </c>
+      <c r="D10" s="1">
+        <v>44159</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44215</v>
+      </c>
+      <c r="I10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -666,18 +729,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="5.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -702,12 +766,15 @@
       <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>43762</v>
       </c>
       <c r="C2" s="1">
@@ -728,12 +795,15 @@
       <c r="H2" s="1">
         <v>44063</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1">
+        <v>44152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>43846</v>
       </c>
       <c r="C3" s="1">
@@ -748,12 +818,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>43894</v>
       </c>
       <c r="C4" s="1">
@@ -771,13 +842,16 @@
       <c r="G4" s="1">
         <v>44138</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H4" s="1">
+        <v>44194</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>43930</v>
       </c>
       <c r="C5" s="1">
@@ -789,15 +863,20 @@
       <c r="E5" s="1">
         <v>44070</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="F5" s="1">
+        <v>44152</v>
+      </c>
+      <c r="G5" s="1">
+        <v>44179</v>
+      </c>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>43937</v>
       </c>
       <c r="C6" s="1">
@@ -809,15 +888,20 @@
       <c r="E6" s="1">
         <v>44084</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="F6" s="1">
+        <v>44180</v>
+      </c>
+      <c r="G6" s="1">
+        <v>44208</v>
+      </c>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>43958</v>
       </c>
       <c r="C7" s="1">
@@ -829,15 +913,20 @@
       <c r="E7" s="1">
         <v>44089</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="F7" s="1">
+        <v>44175</v>
+      </c>
+      <c r="G7" s="1">
+        <v>44201</v>
+      </c>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>43983</v>
       </c>
       <c r="C8" s="1">
@@ -849,15 +938,20 @@
       <c r="E8" s="1">
         <v>44110</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="F8" s="1">
+        <v>44194</v>
+      </c>
+      <c r="G8" s="1">
+        <v>44222</v>
+      </c>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>43987</v>
       </c>
       <c r="C9" s="1">
@@ -869,28 +963,37 @@
       <c r="E9" s="1">
         <v>44124</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1">
+        <v>44208</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>44096</v>
       </c>
       <c r="C10" s="1">
         <v>44131</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1">
+        <v>44159</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44215</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>